--- a/项目/中餐厅设备点检/设备点检进度.xlsx
+++ b/项目/中餐厅设备点检/设备点检进度.xlsx
@@ -127,17 +127,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +166,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,100 +279,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,14 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -354,6 +347,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,13 +377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +413,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,55 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,73 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +556,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -574,15 +597,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,21 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -630,22 +629,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,200 +644,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,14 +1197,14 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
@@ -1889,7 +1879,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="11"/>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="4"/>
@@ -1903,7 +1893,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="11"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
